--- a/hardware/spot-v1-parts-list.xlsx
+++ b/hardware/spot-v1-parts-list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Quantity</t>
   </si>
@@ -61,16 +61,10 @@
     <t>https://www.amazon.com/gp/product/B00AX69CCI?smid=A2WE34KST0BUEK&amp;psc=1</t>
   </si>
   <si>
-    <t>Zeee Fireproof Explosionproof Large Capacity Battery Storage Guard Pouch for Lipo Charge &amp; Storage (8.46 x 6.5 x 5.71 in)</t>
+    <t>Yeah Racing QUTUS Challenger 55mm Damper Set for 1/10 RC Touring M-Chassis Car Black #DBB-2055BK</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B07KZQZBN2?smid=A646DVGSXYMNH&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Tenergy TB-6AB Balance Charger Discharger 1S-6S Digital Battery Pack Charger for NiMH/NiCD/Li-PO/Li-Fe Packs w/ LCD Display Hobby Battery Charger w/ Tamiya/JST/EC3/HiTec/Deans Connectors + Power Supply</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B00466PKE0?smid=A3IAN4VN1Q26HU&amp;psc=1</t>
+    <t>https://www.amazon.com/Yeah-Racing-Challenger-M-Chassis-DBB-2055BK/dp/B07S74993G/ref=sr_1_3?crid=37BSOYBTS8WQZ&amp;dib=eyJ2IjoiMSJ9.Kr5Zz-LJbNBKTmJmhkyO53rGqAtguULE30Y4uv7q-oUFA_5auwFNvUMchW7T0SFdPtk5nG2yd3Oxax6QV8D_kN3uuybVQB-3qyqjJBPeylsqsjnCIx2RSD_bA8M9Ob3IP1Nj_xlDpbdicMdQbsuMzdez42j_gssX1JFyvTPlzC4R7tMIeo6o0tiXQVaxFMaEoxfd6TmG1Sbv_yFch8q993vmkOe4VlzEvlnlxnjJeBNS7gOhsX6ZRCL32vdG2wka4cScmnanyW3dJ9v2pT_KTMaMePTvVA3bQu5wYEkgSmw.3NKKe-dQJtbRJ7nUIC7Hv9nt-njudNYUqXxOKe7PEQ8&amp;dib_tag=se&amp;keywords=touring+suspension+55mm&amp;qid=1755298910&amp;sprefix=touring+suspension+55mm%2Caps%2C143&amp;sr=8-3</t>
   </si>
   <si>
     <t>uxcell 6700-2RS Deep Groove Ball Bearings Z2 10mm x 15mm x 4mm Double Sealed Chrome Steel 10pcs</t>
@@ -91,10 +85,10 @@
     <t>https://www.amazon.com/Mirthobby-Housing-Complete-Volcano-Unassembled/dp/B07YWQ7G9Q/ref=sr_1_23?crid=1UYCTYA87ZP00&amp;dib=eyJ2IjoiMSJ9.bKQPblhd-acVVNftq_DrsmQuaHL6i6Lbxouy1OyRqbVAqCgp2YPoMH4AiXcPnPAEKKQIO1JBbJSLDYUSbONrb1adGbt6HN1VdRmQt9yvMInW4F-a8guS24I9QuNq_qUvhrB25b9ZSTDqcEkk9PG3iCEm6TlqJ1ZKZHEaxWwBR3xnHwwmLfVAZWjEuBb0vUJCp6MRyGg9xMk0elINQDsiTaosEwZa2JwFswKX3ByhGtQgFhYrvRy-CYXh9kOkBNwN_LrZAGiD98mUrR5OXfG_f1iLIa4XctjEoTj6EVQ6Dxo.FvHXwjhlr6wFY9QJEE_n24JzV-tdvBR3e4pM2WpXUeA&amp;dib_tag=se&amp;keywords=front+and+rear+diff+1%2F10&amp;qid=1754599812&amp;s=toys-and-games&amp;sprefix=front+and+rear+diff+1%2F10%2Ctoys-and-games%2C55&amp;sr=1-23</t>
   </si>
   <si>
-    <t>KYX Racing CNC Machined Aluminum Front Rear Suspension Ultra Shocks Upgrades Parts Accessories for RC Crawler Car Traxxas 1/10 Drag Slash 1967 C10</t>
+    <t>705 Pieces M2.5 Screws Nuts Washers Set Black, Sutemribor M2.5 x 4/6/8/10/12/16/20mm Hex Socket Head Cap Screws Nuts Washers Assortment Kit, 12.9 Grade Alloy Steel, Fully Threaded</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B09MFHK9KJ/ref=ox_sc_act_title_2?smid=A35BKIND7SEY96&amp;psc=1</t>
+    <t>https://www.amazon.com/Pieces-Washers-Sutemribor-Assortment-Threaded/dp/B0CXQ4QTGT/ref=sr_1_3?crid=1EHTVI9BZ61A1&amp;dib=eyJ2IjoiMSJ9.M2b3Ow2xM37Nj5lVMNWz_uFB2rt68r3k1iuIM9LN7jdhlHNuo9sJcOoTII8KkmbKPt7rpknCLk-nT9uxwbvgV9DJTtol7f2-LJEl10JR-SpN3bArl9kRFMpqlogLFDK9is10TkY0kEPxGZ8tdmcucGcIkr-_U-tuLBMxQnS-M3_tnD0O4wNzSB9M1Bmjfrrxc3oBU3yABgdi9bO3jEjyHnNQfi_nRsUVEuZ5gW5a_tU.vbDljHBUa7bTqonCa1U4wJdCyhoBNdrb5XyYQHsCvj4&amp;dib_tag=se&amp;keywords=m2.5%2Bscrew&amp;qid=1755298947&amp;sprefix=m2.5%2Bsc%2Caps%2C169&amp;sr=8-3&amp;th=1</t>
   </si>
   <si>
     <t>Pro-line Racing Mirage TT 2.2"/3.0" Belted SC Tires Mounted on Raid Black 6x30 Removable Hex 12mm &amp; 14mm Wheels 2 PRO1024811</t>
@@ -121,10 +115,10 @@
     <t>https://www.amazon.com/HOBBYWING-Quicrun-10BL120-G2-QR10BL120-3660-3700KV/dp/B0C6BFFB96</t>
   </si>
   <si>
-    <t>HiLetgo PCA9685 16 Channel 12-Bit PWM Servo Motor Driver IIC Module for Arduino Robot</t>
+    <t>400Pcs SAE Set Screws Assortment Kit with Allen Keys,12 Size 12.9 Class Alloy Steel Set Screw Assortment Kit,1/8"-40 to 5/16"-18 Internal Set Screws for Bathroom Fixtures</t>
   </si>
   <si>
-    <t>https://www.amazon.com/HiLetgo-PCA9685-Channel-12-Bit-Arduino/dp/B01D1D0CX2/ref=sr_1_5?crid=3LG0ZOFHK9KBG&amp;dib=eyJ2IjoiMSJ9.9PF0BegxsBW4o2W3PzvNYulANjPQJDywlZqmLKGLgvFqLzNmP3p3LA4CtZCk4VkpY3KJTns7p9M5u9UVeijDJrdJdIannlYargm0RMk23OaRsuWEBMRYzsu7bdhcx0ohAFoHUHZbr_blJukIhvifhb7lq4wHDKums4pI9GmeFkEZL8tQbzqpwq0OvON8D3tazklkpCWTojVF34lpb2SM7rJuWHoHQqFBqod-obpwlOkA2A5aegAgEzFatK3CRNXRKchYiaA6vlZ5GDRRNdmCbbcnT5dEJ26kx9ZEGH5Y6AE.QPDM_8yfgQLCaVB9MPgrU15MP2SeS5xeiJEDdowzUdI&amp;dib_tag=se&amp;keywords=pca9685+1pc&amp;qid=1754600359&amp;s=industrial&amp;sprefix=pca9685+1pc%2Cindustrial%2C46&amp;sr=1-5</t>
+    <t>https://www.amazon.com/Seamaka-Internal-Assortment-Wrenches-Handles/dp/B0CYPBW9B6/ref=sr_1_14?crid=181KD6ZAOAKHX&amp;dib=eyJ2IjoiMSJ9.YUlXgxXVfX4mpDrT8sA9MuMQG1apk3W3o00dRjzSGxkPIPFhdW9j35zbBNwL-rgN8ZHaHSlJVpDJRh3ly-r_AoWZwZVAb5ReXqXSzIJVR6kmuYcuZnvhXDM2qc5hlsWmhmwdHlsOKPlJJ9QYbMQbcRIoQOqu7gNcoAE-osNr2SKM9ad_u7q4ozgZIkpOarz5foDx35cWC8g-b-rw8OVEE-SFiV3vygpsvodagSUozn4.pmyHbQ3PoZ96RYZPBBv7H2kQKEBYRaEobk-JSmvrC7s&amp;dib_tag=se&amp;keywords=set+screws&amp;qid=1755299037&amp;sprefix=set+screw%2Caps%2C180&amp;sr=8-14</t>
   </si>
 </sst>
 </file>
@@ -510,35 +504,35 @@
         <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>14.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +546,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>11.99</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="12">
@@ -566,12 +560,12 @@
         <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>16.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
@@ -580,12 +574,12 @@
         <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>46.99</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -594,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>49.99</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="15">
@@ -608,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="1">
-        <v>8.49</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +616,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1">
-        <v>28.99</v>
+        <v>109.99</v>
       </c>
     </row>
     <row r="17">
@@ -636,22 +630,14 @@
         <v>35</v>
       </c>
       <c r="D17" s="1">
-        <v>109.99</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8.99</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -6514,12 +6500,6 @@
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6539,8 +6519,7 @@
     <hyperlink r:id="rId14" ref="C15"/>
     <hyperlink r:id="rId15" ref="C16"/>
     <hyperlink r:id="rId16" ref="C17"/>
-    <hyperlink r:id="rId17" ref="C18"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>